--- a/natmiOut/OldD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H2">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I2">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J2">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N2">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O2">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P2">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q2">
-        <v>21.83701046431682</v>
+        <v>29.529658450985</v>
       </c>
       <c r="R2">
-        <v>21.83701046431682</v>
+        <v>265.766926058865</v>
       </c>
       <c r="S2">
-        <v>0.001211040578413774</v>
+        <v>0.001538477972413895</v>
       </c>
       <c r="T2">
-        <v>0.001211040578413774</v>
+        <v>0.001867542004622817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H3">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I3">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J3">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N3">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P3">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q3">
-        <v>22.8506263270689</v>
+        <v>31.68431018291</v>
       </c>
       <c r="R3">
-        <v>22.8506263270689</v>
+        <v>285.15879164619</v>
       </c>
       <c r="S3">
-        <v>0.001267253856450277</v>
+        <v>0.001650734070238131</v>
       </c>
       <c r="T3">
-        <v>0.001267253856450277</v>
+        <v>0.002003808484690046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H4">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I4">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J4">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N4">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O4">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P4">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q4">
-        <v>127.472782996114</v>
+        <v>157.33358948923</v>
       </c>
       <c r="R4">
-        <v>127.472782996114</v>
+        <v>1416.00230540307</v>
       </c>
       <c r="S4">
-        <v>0.007069406918309003</v>
+        <v>0.008196988195842698</v>
       </c>
       <c r="T4">
-        <v>0.007069406918309003</v>
+        <v>0.009950236559523056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H5">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I5">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J5">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N5">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O5">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P5">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q5">
-        <v>117.8629133123005</v>
+        <v>147.69810744997</v>
       </c>
       <c r="R5">
-        <v>117.8629133123005</v>
+        <v>1329.28296704973</v>
       </c>
       <c r="S5">
-        <v>0.006536461158202157</v>
+        <v>0.007694985204660228</v>
       </c>
       <c r="T5">
-        <v>0.006536461158202157</v>
+        <v>0.009340860481808669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H6">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I6">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J6">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N6">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O6">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P6">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q6">
-        <v>319.3592792661603</v>
+        <v>382.2313525338</v>
       </c>
       <c r="R6">
-        <v>319.3592792661603</v>
+        <v>2293.3881152028</v>
       </c>
       <c r="S6">
-        <v>0.01771108032009622</v>
+        <v>0.01991403040489979</v>
       </c>
       <c r="T6">
-        <v>0.01771108032009622</v>
+        <v>0.01611561943225146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H7">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I7">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J7">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N7">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O7">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P7">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q7">
-        <v>77.90016561943962</v>
+        <v>97.31335047198966</v>
       </c>
       <c r="R7">
-        <v>77.90016561943962</v>
+        <v>875.820154247907</v>
       </c>
       <c r="S7">
-        <v>0.004320200413167977</v>
+        <v>0.005069968769583092</v>
       </c>
       <c r="T7">
-        <v>0.004320200413167977</v>
+        <v>0.00615438102403654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H8">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I8">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J8">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N8">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P8">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q8">
-        <v>81.51608381996006</v>
+        <v>104.4138856672047</v>
       </c>
       <c r="R8">
-        <v>81.51608381996006</v>
+        <v>939.724971004842</v>
       </c>
       <c r="S8">
-        <v>0.004520732609468876</v>
+        <v>0.005439902509532038</v>
       </c>
       <c r="T8">
-        <v>0.004520732609468876</v>
+        <v>0.006603439646044556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H9">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I9">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J9">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N9">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O9">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P9">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q9">
-        <v>454.7394856816466</v>
+        <v>518.4841118428474</v>
       </c>
       <c r="R9">
-        <v>454.7394856816466</v>
+        <v>4666.357006585626</v>
       </c>
       <c r="S9">
-        <v>0.02521901844885674</v>
+        <v>0.02701271965068039</v>
       </c>
       <c r="T9">
-        <v>0.02521901844885674</v>
+        <v>0.03279045232450947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H10">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I10">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J10">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N10">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O10">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P10">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q10">
-        <v>420.4577582824871</v>
+        <v>486.7309155703794</v>
       </c>
       <c r="R10">
-        <v>420.4577582824871</v>
+        <v>4380.578240133414</v>
       </c>
       <c r="S10">
-        <v>0.02331781667738063</v>
+        <v>0.02535839665537675</v>
       </c>
       <c r="T10">
-        <v>0.02331781667738063</v>
+        <v>0.03078228728195414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H11">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I11">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J11">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N11">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O11">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P11">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q11">
-        <v>1139.264955136206</v>
+        <v>1259.62220769484</v>
       </c>
       <c r="R11">
-        <v>1139.264955136206</v>
+        <v>7557.733246169039</v>
       </c>
       <c r="S11">
-        <v>0.06318154641585265</v>
+        <v>0.0656255819320941</v>
       </c>
       <c r="T11">
-        <v>0.06318154641585265</v>
+        <v>0.05310812939089655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H12">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I12">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J12">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N12">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O12">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P12">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q12">
-        <v>281.7556092395891</v>
+        <v>328.5090866980732</v>
       </c>
       <c r="R12">
-        <v>281.7556092395891</v>
+        <v>2956.581780282659</v>
       </c>
       <c r="S12">
-        <v>0.01562564969881798</v>
+        <v>0.01711513170603345</v>
       </c>
       <c r="T12">
-        <v>0.01562564969881798</v>
+        <v>0.02077587586484483</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H13">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I13">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J13">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N13">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O13">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P13">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q13">
-        <v>294.833954162824</v>
+        <v>352.4789769621948</v>
       </c>
       <c r="R13">
-        <v>294.833954162824</v>
+        <v>3172.310792659754</v>
       </c>
       <c r="S13">
-        <v>0.01635095073883032</v>
+        <v>0.01836394900047457</v>
       </c>
       <c r="T13">
-        <v>0.01635095073883032</v>
+        <v>0.02229180186137302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H14">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I14">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J14">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N14">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O14">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P14">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q14">
-        <v>1644.738490794128</v>
+        <v>1750.291622093329</v>
       </c>
       <c r="R14">
-        <v>1644.738490794128</v>
+        <v>15752.62459883996</v>
       </c>
       <c r="S14">
-        <v>0.0912141822932004</v>
+        <v>0.09118917207799097</v>
       </c>
       <c r="T14">
-        <v>0.0912141822932004</v>
+        <v>0.1106935635582898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H15">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I15">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J15">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N15">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O15">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P15">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q15">
-        <v>1520.745570980293</v>
+        <v>1643.09961342628</v>
       </c>
       <c r="R15">
-        <v>1520.745570980293</v>
+        <v>14787.89652083652</v>
       </c>
       <c r="S15">
-        <v>0.08433776220923639</v>
+        <v>0.08560453098142069</v>
       </c>
       <c r="T15">
-        <v>0.08433776220923639</v>
+        <v>0.1039144272849093</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H16">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I16">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J16">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N16">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O16">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P16">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q16">
-        <v>4120.585482293406</v>
+        <v>4252.215539054412</v>
       </c>
       <c r="R16">
-        <v>4120.585482293406</v>
+        <v>25513.29323432648</v>
       </c>
       <c r="S16">
-        <v>0.2285201188154547</v>
+        <v>0.2215379480819249</v>
       </c>
       <c r="T16">
-        <v>0.2285201188154547</v>
+        <v>0.1792817018202273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H17">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I17">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J17">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N17">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O17">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P17">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q17">
-        <v>250.6249166541902</v>
+        <v>285.5517975930069</v>
       </c>
       <c r="R17">
-        <v>250.6249166541902</v>
+        <v>2569.966178337063</v>
       </c>
       <c r="S17">
-        <v>0.01389919854303143</v>
+        <v>0.0148770820126224</v>
       </c>
       <c r="T17">
-        <v>0.01389919854303143</v>
+        <v>0.01805913120822787</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H18">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I18">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J18">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N18">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O18">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P18">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q18">
-        <v>262.2582577443875</v>
+        <v>306.3872798678636</v>
       </c>
       <c r="R18">
-        <v>262.2582577443875</v>
+        <v>2757.485518810772</v>
       </c>
       <c r="S18">
-        <v>0.01454436231880462</v>
+        <v>0.01596259847999685</v>
       </c>
       <c r="T18">
-        <v>0.01454436231880462</v>
+        <v>0.01937682807219451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H19">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I19">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J19">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N19">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O19">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P19">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q19">
-        <v>1463.014164245776</v>
+        <v>1521.415812342769</v>
       </c>
       <c r="R19">
-        <v>1463.014164245776</v>
+        <v>13692.74231108492</v>
       </c>
       <c r="S19">
-        <v>0.08113608419938906</v>
+        <v>0.07926487595705548</v>
       </c>
       <c r="T19">
-        <v>0.08113608419938906</v>
+        <v>0.09621878765593003</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H20">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I20">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J20">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N20">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O20">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P20">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q20">
-        <v>1352.721008848017</v>
+        <v>1428.240700901747</v>
       </c>
       <c r="R20">
-        <v>1352.721008848017</v>
+        <v>12854.16630811573</v>
       </c>
       <c r="S20">
-        <v>0.07501942794159937</v>
+        <v>0.0744105070259973</v>
       </c>
       <c r="T20">
-        <v>0.07501942794159937</v>
+        <v>0.09032612097675566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H21">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I21">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J21">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N21">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O21">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P21">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q21">
-        <v>3665.309080636911</v>
+        <v>3696.177183816773</v>
       </c>
       <c r="R21">
-        <v>3665.309080636911</v>
+        <v>22177.06310290064</v>
       </c>
       <c r="S21">
-        <v>0.2032713239906694</v>
+        <v>0.1925686742662358</v>
       </c>
       <c r="T21">
-        <v>0.2032713239906694</v>
+        <v>0.1558380401128783</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H22">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I22">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J22">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N22">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O22">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P22">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q22">
-        <v>14.03863941088468</v>
+        <v>16.3597302531835</v>
       </c>
       <c r="R22">
-        <v>14.03863941088468</v>
+        <v>98.15838151910101</v>
       </c>
       <c r="S22">
-        <v>0.0007785572123107964</v>
+        <v>0.0008523323989992325</v>
       </c>
       <c r="T22">
-        <v>0.0007785572123107964</v>
+        <v>0.000689758140003134</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H23">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I23">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J23">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N23">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O23">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P23">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q23">
-        <v>14.69027566034208</v>
+        <v>17.553429163801</v>
       </c>
       <c r="R23">
-        <v>14.69027566034208</v>
+        <v>105.320574982806</v>
       </c>
       <c r="S23">
-        <v>0.000814695764414703</v>
+        <v>0.0009145234156250355</v>
       </c>
       <c r="T23">
-        <v>0.000814695764414703</v>
+        <v>0.0007400868145942736</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H24">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I24">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J24">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N24">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O24">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P24">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q24">
-        <v>81.95006537678935</v>
+        <v>87.16440415595301</v>
       </c>
       <c r="R24">
-        <v>81.95006537678935</v>
+        <v>522.986424935718</v>
       </c>
       <c r="S24">
-        <v>0.004544800431227824</v>
+        <v>0.004541214589227419</v>
       </c>
       <c r="T24">
-        <v>0.004544800431227824</v>
+        <v>0.003675021308703556</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H25">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I25">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J25">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N25">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O25">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P25">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q25">
-        <v>75.77204501557273</v>
+        <v>81.82624938916702</v>
       </c>
       <c r="R25">
-        <v>75.77204501557273</v>
+        <v>490.9574963350021</v>
       </c>
       <c r="S25">
-        <v>0.004202178744805789</v>
+        <v>0.004263099841111783</v>
       </c>
       <c r="T25">
-        <v>0.004202178744805789</v>
+        <v>0.003449954290726859</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H26">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I26">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J26">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N26">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O26">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P26">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q26">
-        <v>205.3106019921445</v>
+        <v>211.76004565518</v>
       </c>
       <c r="R26">
-        <v>205.3106019921445</v>
+        <v>847.0401826207201</v>
       </c>
       <c r="S26">
-        <v>0.01138614970200893</v>
+        <v>0.01103257479996312</v>
       </c>
       <c r="T26">
-        <v>0.01138614970200893</v>
+        <v>0.005952144400004099</v>
       </c>
     </row>
   </sheetData>
